--- a/data_year/zb/固定资产投资和房地产/房地产开发企业成套住宅竣工与销售情况.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业成套住宅竣工与销售情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,377 +458,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2139702</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>6019767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8817526</v>
+      </c>
       <c r="D2" t="n">
-        <v>59880</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>163207</v>
+      </c>
+      <c r="E2" t="n">
+        <v>223596</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2414392</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>7219163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9139672</v>
+      </c>
       <c r="D3" t="n">
-        <v>72207</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>155923</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191881</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2629616</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>7642379</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9446424</v>
+      </c>
       <c r="D4" t="n">
-        <v>97751</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>161899</v>
+      </c>
+      <c r="E4" t="n">
+        <v>184001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3021134</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>7493133</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11046279</v>
+      </c>
       <c r="D5" t="n">
-        <v>108525</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>126444</v>
+      </c>
+      <c r="E5" t="n">
+        <v>202081</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042219</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>7659418</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10104351</v>
+      </c>
       <c r="D6" t="n">
-        <v>144949</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>145182</v>
+      </c>
+      <c r="E6" t="n">
+        <v>167469</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3682523</v>
+        <v>7050109</v>
       </c>
       <c r="C7" t="n">
-        <v>4235372</v>
+        <v>10578898</v>
       </c>
       <c r="D7" t="n">
-        <v>135276</v>
+        <v>126972</v>
       </c>
       <c r="E7" t="n">
-        <v>152339</v>
+        <v>191594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4005305</v>
+        <v>7455409</v>
       </c>
       <c r="C8" t="n">
-        <v>5049094</v>
+        <v>12822565</v>
       </c>
       <c r="D8" t="n">
-        <v>139632</v>
+        <v>218297</v>
       </c>
       <c r="E8" t="n">
-        <v>219982</v>
+        <v>258582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4401203</v>
+        <v>6770598</v>
       </c>
       <c r="C9" t="n">
-        <v>6251263</v>
+        <v>13361411</v>
       </c>
       <c r="D9" t="n">
-        <v>159423</v>
+        <v>153900</v>
       </c>
       <c r="E9" t="n">
-        <v>257776</v>
+        <v>294616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4939189</v>
+        <v>6229216</v>
       </c>
       <c r="C10" t="n">
-        <v>5565827</v>
+        <v>13285469</v>
       </c>
       <c r="D10" t="n">
-        <v>144618</v>
+        <v>138880</v>
       </c>
       <c r="E10" t="n">
-        <v>157455</v>
+        <v>281919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5548897</v>
+        <v>6452838</v>
       </c>
       <c r="C11" t="n">
-        <v>8040470</v>
+        <v>13216466</v>
       </c>
       <c r="D11" t="n">
-        <v>143621</v>
+        <v>141022</v>
       </c>
       <c r="E11" t="n">
-        <v>240129</v>
+        <v>260475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6019767</v>
+        <v>5976595</v>
       </c>
       <c r="C12" t="n">
-        <v>8817526</v>
-      </c>
-      <c r="D12" t="n">
-        <v>163207</v>
-      </c>
-      <c r="E12" t="n">
-        <v>223596</v>
-      </c>
+        <v>13555925</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7219163</v>
+        <v>6468266</v>
       </c>
       <c r="C13" t="n">
-        <v>9139672</v>
-      </c>
-      <c r="D13" t="n">
-        <v>155923</v>
-      </c>
-      <c r="E13" t="n">
-        <v>191881</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7642379</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9446424</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161899</v>
-      </c>
-      <c r="E14" t="n">
-        <v>184001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7493133</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11046279</v>
-      </c>
-      <c r="D15" t="n">
-        <v>126444</v>
-      </c>
-      <c r="E15" t="n">
-        <v>202081</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7659418</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10104351</v>
-      </c>
-      <c r="D16" t="n">
-        <v>145182</v>
-      </c>
-      <c r="E16" t="n">
-        <v>167469</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7050109</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10578898</v>
-      </c>
-      <c r="D17" t="n">
-        <v>126972</v>
-      </c>
-      <c r="E17" t="n">
-        <v>191594</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7455409</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12822565</v>
-      </c>
-      <c r="D18" t="n">
-        <v>218297</v>
-      </c>
-      <c r="E18" t="n">
-        <v>258582</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6770598</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13361411</v>
-      </c>
-      <c r="D19" t="n">
-        <v>153900</v>
-      </c>
-      <c r="E19" t="n">
-        <v>294616</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6229216</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13285469</v>
-      </c>
-      <c r="D20" t="n">
-        <v>138880</v>
-      </c>
-      <c r="E20" t="n">
-        <v>281919</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6452838</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13216466</v>
-      </c>
-      <c r="D21" t="n">
-        <v>141022</v>
-      </c>
-      <c r="E21" t="n">
-        <v>260475</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>5976595</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13555925</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>13690713</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
